--- a/biology/Zoologie/Apostenus/Apostenus.xlsx
+++ b/biology/Zoologie/Apostenus/Apostenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apostenus est un genre d'araignées aranéomorphes de la famille des Liocranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apostenus est un genre d'araignées aranéomorphes de la famille des Liocranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est connue depuis le Paléogène[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 08/03/2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 08/03/2022) :
 Apostenus algericus Bosmans, 1999
 Apostenus annulipedes Wunderlich, 1987
 Apostenus annulipes Caporiacco, 1935
@@ -591,7 +609,7 @@
 Apostenus naxos Wunderlich, 2022
 Apostenus ochraceus Hadjissarantos, 1940
 Apostenus palmensis Wunderlich, 1992
-Selon World Spider Catalog (version 20.5, 2020)[2] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Apostenus arnoldorum Wunderlich, 2004
 † Apostenus bigibber Wunderlich, 2004
 † Apostenus spinimanus (C. L. Koch &amp; Berendt, 1854)</t>
@@ -622,7 +640,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Westring en 1851.
 </t>
@@ -653,7 +673,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Westring, 1851 : « Förteckning öfver de till närvarande tid Kände, i Sverige förekommande Spindlarter, utgörande ett antal af 253, deraf 132 äro nya för svenska Faunan. » Göteborgs Kungliga Vetenskaps- och Vitterhets-samhälles Handlingar, vol. 2, p. 25-62.</t>
         </is>
